--- a/Define/Custos Servidores/Relatório sobre custos_revisadaPedro.xlsx
+++ b/Define/Custos Servidores/Relatório sobre custos_revisadaPedro.xlsx
@@ -452,9 +452,6 @@
     <t>CUSTO SALARIAL LÍQUIDO- SERVIDORES DA SECGS</t>
   </si>
   <si>
-    <t>PENDENTE DE ATUALIZAÇÃO DOS DADOS CALCULADOS COM OS IMPOSTOS</t>
-  </si>
-  <si>
     <t>CUSTO SALARIAL BRUTO- SERVIDORES DA SECGS</t>
   </si>
   <si>
@@ -481,6 +478,11 @@
   </si>
   <si>
     <t>3 dias * (Média anual PAD)*(CUSTO DIARIO SERVIDOR)</t>
+  </si>
+  <si>
+    <t>COM BASE NO LEVANTAMENTO FINANCEIRO É POSSÍVEL AFIRMAR QUE COM UMA REDUÇÃO DE 3 DIAS POR PAD PROCESSADO NA SECGS DEIXARIAMOS DE APLICAR 1600,46 GASTOS COM RETRABALHO EM PADS. 
+ANUALMENTE OS SERVIDORES DA SECGS PODERIAM GANHAR 150 DIAS ELIMINANDO OS RETRABALHOS E APLICANDO PADRONIZAÇÕES. IMPORTANTE SALIENTAR QUE A ECONOMIA MENCIONADA SE REFERE AO FATO DE O SERVIDOR PODER REALIZAR UMA OUTRA ATIVIDADE, EVITANDO ASSIM A NECESSIDADE DE UM NOVO CONCURSO PARA CONTRATACAO DE MAIS SERVIDORES.
+OBSERVA-SE AINDA QUE POR MÊS 4 PADS SÃO TRABALHADOS NA SECGS E EM TORNO DE 0,14 OU 14% DOS 4 PADS MENSAIS SÃO TRABALHADO POR DIA COM BASE NOS RESULTADOS DA LINHA MÉDIA VOLUME DE PADS TRABALHADOS (ANO/MÊS/DIA)</t>
   </si>
 </sst>
 </file>
@@ -493,7 +495,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="&quot;R$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -601,6 +603,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -849,7 +859,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -937,9 +947,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,9 +954,6 @@
     <xf numFmtId="43" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1029,6 +1033,9 @@
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3020,12 +3027,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -3066,7 +3073,7 @@
         <f>D3*3</f>
         <v>1340.836</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>6757811.6699999999</v>
       </c>
     </row>
@@ -3095,27 +3102,27 @@
       <c r="D6" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="58"/>
       <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="63">
+        <v>78</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="61">
         <f>F11-F3</f>
         <v>-1164594.7461599996</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3123,7 +3130,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>4</v>
@@ -3143,29 +3150,29 @@
       <c r="A11" s="33">
         <v>42</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="47">
         <f>B3-(13408.36 *23.6%)</f>
         <v>10243.98704</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="47">
         <f>B11*13</f>
         <v>133171.83152000001</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="48">
         <f>(B11/30)</f>
         <v>341.46623466666665</v>
       </c>
-      <c r="E11" s="50">
+      <c r="E11" s="49">
         <f>D11*3</f>
         <v>1024.398704</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="59">
         <f>C11*42</f>
         <v>5593216.9238400003</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="64"/>
+      <c r="C13" s="62"/>
     </row>
     <row r="14" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3199,27 +3206,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="70"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -3233,7 +3240,7 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="52">
+      <c r="B4" s="51">
         <v>0.52439999999999998</v>
       </c>
       <c r="C4" s="38"/>
@@ -3283,7 +3290,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="69" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="39" t="s">
@@ -3307,7 +3314,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
+      <c r="A11" s="69"/>
       <c r="B11" s="39" t="s">
         <v>55</v>
       </c>
@@ -3329,7 +3336,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
+      <c r="A12" s="69"/>
       <c r="B12" s="39" t="s">
         <v>56</v>
       </c>
@@ -3351,7 +3358,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
+      <c r="A13" s="69"/>
       <c r="B13" s="39" t="s">
         <v>57</v>
       </c>
@@ -3373,7 +3380,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
+      <c r="A14" s="69"/>
       <c r="B14" s="39" t="s">
         <v>58</v>
       </c>
@@ -3395,8 +3402,8 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="72" t="s">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="40">
@@ -3417,8 +3424,8 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="72"/>
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -3459,7 +3466,7 @@
       <c r="D18" s="40">
         <v>284.41000000000003</v>
       </c>
-      <c r="E18" s="51">
+      <c r="E18" s="50">
         <f>SUM(2439.75,1742.68)</f>
         <v>4182.43</v>
       </c>
@@ -3578,8 +3585,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,22 +3611,22 @@
       <c r="C2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="80"/>
+      <c r="H3" s="78" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -3630,10 +3637,10 @@
         <v>33</v>
       </c>
       <c r="E5"/>
-      <c r="H5" s="81">
+      <c r="H5" s="79">
         <v>0.15</v>
       </c>
-      <c r="I5" s="80"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
@@ -3651,10 +3658,10 @@
       <c r="F6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -3672,10 +3679,10 @@
       <c r="F7" s="1">
         <v>33</v>
       </c>
-      <c r="H7" s="80" t="s">
+      <c r="H7" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="80"/>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -3693,10 +3700,10 @@
       <c r="F8" s="1">
         <v>51</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -3714,18 +3721,18 @@
       <c r="F9" s="1">
         <v>67</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="25">
         <f>ROUND(AVERAGE(33,51,67),0)</f>
         <v>50</v>
@@ -3734,36 +3741,36 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
@@ -3797,7 +3804,7 @@
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3815,7 +3822,7 @@
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="I17" s="29"/>
     </row>
     <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+      <c r="A18" s="77"/>
       <c r="B18" s="45" t="s">
         <v>1</v>
       </c>
@@ -3901,7 +3908,7 @@
         <f>C20/12</f>
         <v>4.166666666666667</v>
       </c>
-      <c r="E20" s="59">
+      <c r="E20" s="57">
         <f>(D20/30)/100</f>
         <v>1.3888888888888889E-3</v>
       </c>
@@ -3929,12 +3936,12 @@
       <c r="A22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="8"/>
@@ -3967,8 +3974,8 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3978,10 +3985,10 @@
     <col min="3" max="3" width="21.85546875" style="11" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" style="11" customWidth="1"/>
     <col min="5" max="5" width="20.5703125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="42.28515625" customWidth="1"/>
     <col min="8" max="8" width="22.140625" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -3993,26 +4000,26 @@
       <c r="C2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="77"/>
+      <c r="I2" s="75"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="58"/>
       <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="75"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -4023,10 +4030,10 @@
         <v>33</v>
       </c>
       <c r="E5"/>
-      <c r="H5" s="81">
+      <c r="H5" s="79">
         <v>0.15</v>
       </c>
-      <c r="I5" s="80"/>
+      <c r="I5" s="78"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
@@ -4044,10 +4051,10 @@
       <c r="F6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="77" t="s">
+      <c r="H6" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="77"/>
+      <c r="I6" s="75"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
@@ -4065,10 +4072,10 @@
       <c r="F7" s="1">
         <v>33</v>
       </c>
-      <c r="H7" s="80" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="80"/>
+      <c r="H7" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
@@ -4086,10 +4093,10 @@
       <c r="F8" s="1">
         <v>51</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="77"/>
+      <c r="I8" s="75"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
@@ -4107,18 +4114,18 @@
       <c r="F9" s="1">
         <v>67</v>
       </c>
-      <c r="H9" s="80" t="s">
+      <c r="H9" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="80"/>
+      <c r="I9" s="78"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="76"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
       <c r="F10" s="25">
         <f>ROUND(AVERAGE(33,51,67),0)</f>
         <v>50</v>
@@ -4127,36 +4134,36 @@
       <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
     </row>
     <row r="14" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
@@ -4172,7 +4179,7 @@
       <c r="H14" s="26"/>
       <c r="I14" s="27"/>
     </row>
-    <row r="15" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -4180,55 +4187,55 @@
         <f>'Dados Gerais'!C11</f>
         <v>133171.83152000001</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="52">
         <f>'Dados Gerais'!B11</f>
         <v>10243.98704</v>
       </c>
-      <c r="E15" s="55">
+      <c r="E15" s="53">
         <f>D15/30</f>
         <v>341.46623466666665</v>
       </c>
-      <c r="F15" s="47" t="s">
+      <c r="F15" s="80" t="s">
         <v>72</v>
       </c>
       <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="77" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57">
+      <c r="C16" s="54"/>
+      <c r="D16" s="55">
         <f>CustosDiretos!C22</f>
         <v>2106.31</v>
       </c>
-      <c r="E16" s="56">
+      <c r="E16" s="54">
         <f>D16/30</f>
         <v>70.210333333333338</v>
       </c>
       <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57">
+      <c r="C17" s="54"/>
+      <c r="D17" s="55">
         <f>CustosDiretos!D22</f>
         <v>489.37000000000006</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="54">
         <f>D17/30</f>
         <v>16.312333333333335</v>
       </c>
       <c r="I17" s="29"/>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
+    <row r="18" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="77"/>
       <c r="B18" s="45" t="s">
         <v>1</v>
       </c>
@@ -4270,19 +4277,19 @@
         <f>SUM(E15:E18)</f>
         <v>428.00638133333331</v>
       </c>
-      <c r="F19" s="65">
+      <c r="F19" s="63">
         <f>E19*3</f>
         <v>1284.0191439999999</v>
       </c>
-      <c r="G19" s="66">
+      <c r="G19" s="64">
         <f>C20*3</f>
         <v>3960</v>
       </c>
-      <c r="H19" s="65">
+      <c r="H19" s="63">
         <f>E19*G19</f>
         <v>1694905.2700799999</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="63">
         <f>H19</f>
         <v>1694905.2700799999</v>
       </c>
@@ -4303,7 +4310,7 @@
         <v>3.6666666666666665</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8">
@@ -4315,15 +4322,15 @@
       <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="58">
+      <c r="C21" s="56">
         <f>C20*C19</f>
         <v>175786817.60640001</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D21" s="56">
         <f>D20*D19</f>
         <v>1412421.0584</v>
       </c>
-      <c r="E21" s="58">
+      <c r="E21" s="56">
         <f>E20*E19</f>
         <v>1569.3567315555554</v>
       </c>
@@ -4332,12 +4339,12 @@
       <c r="A22" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="73"/>
+      <c r="B22" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F24" s="8"/>
